--- a/4. 교육/R 교육/2. 교육 참석자 명단/2023년 9월 북부지원 R 교육 참석자 명단.xlsx
+++ b/4. 교육/R 교육/2. 교육 참석자 명단/2023년 9월 북부지원 R 교육 참석자 명단.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>성명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,46 @@
   </si>
   <si>
     <t>김재광</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위효빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서인숙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백다원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤수현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최형주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손해준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유한조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤서영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오은주</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -215,6 +255,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -497,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,6 +764,146 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>45174</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D15"/>
   <phoneticPr fontId="1" type="noConversion"/>
